--- a/TestCases/Back End/CreateKPI-BackEnd-TeamLead.xlsx
+++ b/TestCases/Back End/CreateKPI-BackEnd-TeamLead.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18805"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{D4B41535-13EF-403E-AA0D-57690BC2D0FE}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{CB6EEDA0-674E-4277-8D1B-02AE5EA29568}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{D4B41535-13EF-403E-AA0D-57690BC2D0FE}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{6FD809B9-44D3-4DF8-A5BC-5DF636246A1C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Role: Team Lead</t>
   </si>
@@ -41,7 +41,13 @@
     <t>I am returned to the login page</t>
   </si>
   <si>
-    <t>Step 2: Login as a team lead and go to the create kpi page</t>
+    <t>Step 2: Login as a user with the appropriate</t>
+  </si>
+  <si>
+    <t>I am redirected to that user's dashboard</t>
+  </si>
+  <si>
+    <t>Step 3: Go to the create kpi page</t>
   </si>
   <si>
     <t>I am redirected to the create KPI page</t>
@@ -416,24 +422,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="28.140625" defaultRowHeight="59.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="28.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54" customHeight="1">
+    <row r="1" spans="1:6" ht="59.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="65.25" customHeight="1">
+    <row r="2" spans="1:6" ht="59.25" customHeight="1">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -461,7 +461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="58.5" customHeight="1">
+    <row r="3" spans="1:6" ht="59.25" customHeight="1">
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="56.25" customHeight="1">
+    <row r="4" spans="1:6" ht="59.25" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
@@ -477,7 +477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="58.5" customHeight="1">
+    <row r="5" spans="1:6" ht="59.25" customHeight="1">
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
@@ -485,7 +485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60.75" customHeight="1">
+    <row r="6" spans="1:6" ht="59.25" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -493,7 +493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60.75" customHeight="1">
+    <row r="7" spans="1:6" ht="59.25" customHeight="1">
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
@@ -501,6 +501,14 @@
         <v>17</v>
       </c>
       <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="59.25" customHeight="1">
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
